--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teezh\eclipse-workspace\newProject\src\ProgrammingAssignment2\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B3AF44-F2D4-4BD4-AAAF-E5D7401CFC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287926D-DD94-4EFC-A0AE-1D8D8FD1BD6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{5761E85F-0CC8-43A8-9198-C61A0C049CCB}"/>
   </bookViews>
@@ -127,6 +127,439 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>File</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>ize against Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8MB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A732-4992-8955-36688EAB5B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8MB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A732-4992-8955-36688EAB5B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="387617920"/>
+        <c:axId val="502752336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="387617920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502752336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="502752336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387617920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA9F856-28C4-4EC7-A22B-64BDCF3B4223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,7 +862,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,5 +1013,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teezh\eclipse-workspace\newProject\src\ProgrammingAssignment2\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287926D-DD94-4EFC-A0AE-1D8D8FD1BD6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D1ACAF-C1C7-4C17-BA71-64F959603233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{5761E85F-0CC8-43A8-9198-C61A0C049CCB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>CP1</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>16MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forever </t>
   </si>
   <si>
     <t>64KB</t>
@@ -238,10 +235,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1711</c:v>
                 </c:pt>
@@ -268,6 +265,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>187916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>444748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,7 +862,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1711</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1731</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>6607</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>7286</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2677</v>
@@ -1004,8 +1004,8 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="E12">
+        <v>444748</v>
       </c>
       <c r="F12">
         <v>20552</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teezh\eclipse-workspace\newProject\src\ProgrammingAssignment2\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D1ACAF-C1C7-4C17-BA71-64F959603233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0E1E5-616D-494E-9102-E4D314E16028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{5761E85F-0CC8-43A8-9198-C61A0C049CCB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>CP1</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>32KB</t>
+  </si>
+  <si>
+    <t>With Sarthak/Eda</t>
   </si>
 </sst>
 </file>
@@ -235,39 +238,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1711</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1731</c:v>
+                  <c:v>1558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1960</c:v>
+                  <c:v>1751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2325</c:v>
+                  <c:v>3202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2677</c:v>
+                  <c:v>10706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4080</c:v>
+                  <c:v>22900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15180</c:v>
+                  <c:v>47591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59684</c:v>
+                  <c:v>99097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187916</c:v>
+                  <c:v>146801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>444748</c:v>
+                  <c:v>429943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,15 +285,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -334,39 +328,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1347</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1498</c:v>
+                  <c:v>1378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1499</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1770</c:v>
+                  <c:v>1613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2017</c:v>
+                  <c:v>1741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2837</c:v>
+                  <c:v>2447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4063</c:v>
+                  <c:v>2823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6183</c:v>
+                  <c:v>3851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10951</c:v>
+                  <c:v>5713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20552</c:v>
+                  <c:v>9310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,16 +519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -859,23 +853,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0D31D8-A801-44A7-8720-72F365415FBD}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -888,8 +885,14 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -899,8 +902,17 @@
       <c r="F3">
         <v>1347</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1404</v>
+      </c>
+      <c r="I3">
+        <v>1374</v>
+      </c>
+      <c r="K3">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -910,8 +922,17 @@
       <c r="F4">
         <v>1498</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1558</v>
+      </c>
+      <c r="I4">
+        <v>1670</v>
+      </c>
+      <c r="K4">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -927,8 +948,17 @@
       <c r="F5">
         <v>1499</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1751</v>
+      </c>
+      <c r="I5">
+        <v>1657</v>
+      </c>
+      <c r="K5">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -944,8 +974,17 @@
       <c r="F6">
         <v>1770</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>3202</v>
+      </c>
+      <c r="I6">
+        <v>3385</v>
+      </c>
+      <c r="K6">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -955,8 +994,20 @@
       <c r="F7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>10706</v>
+      </c>
+      <c r="I7">
+        <v>10369</v>
+      </c>
+      <c r="J7">
+        <v>10331</v>
+      </c>
+      <c r="K7">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -966,8 +1017,14 @@
       <c r="F8">
         <v>2837</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>22900</v>
+      </c>
+      <c r="K8">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1034,14 @@
       <c r="F9">
         <v>4063</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>47591</v>
+      </c>
+      <c r="K9">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1051,14 @@
       <c r="F10">
         <v>6183</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>99097</v>
+      </c>
+      <c r="K10">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -999,8 +1068,14 @@
       <c r="F11">
         <v>10951</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>146801</v>
+      </c>
+      <c r="K11">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1009,6 +1084,12 @@
       </c>
       <c r="F12">
         <v>20552</v>
+      </c>
+      <c r="H12">
+        <v>429943</v>
+      </c>
+      <c r="K12">
+        <v>9310</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teezh\eclipse-workspace\newProject\src\ProgrammingAssignment2\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0E1E5-616D-494E-9102-E4D314E16028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6CB2FF-850C-49DD-9251-434DAAD65537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{5761E85F-0CC8-43A8-9198-C61A0C049CCB}"/>
   </bookViews>
@@ -195,6 +195,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>CP1</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -285,6 +288,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>CP2</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -391,6 +397,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>File Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -456,6 +480,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -492,6 +534,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -519,16 +565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -855,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0D31D8-A801-44A7-8720-72F365415FBD}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
